--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B759BC2-5C45-4EA5-B36B-701981BB0934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5D09B-ADCE-4BA3-B3DF-586889BE1E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="152">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -423,25 +423,61 @@
     <t>centro</t>
   </si>
   <si>
-    <t>Italexit</t>
-  </si>
-  <si>
-    <t>Unione Popolare</t>
-  </si>
-  <si>
-    <t>Italia sovrana e popolare</t>
-  </si>
-  <si>
-    <t>Mastella Noi di centro</t>
-  </si>
-  <si>
-    <t>Partito Comunista Italiano</t>
-  </si>
-  <si>
-    <t>Sud Chiama Nord</t>
-  </si>
-  <si>
-    <t>Partito animalista</t>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>principalmente Alleanza popolare</t>
+  </si>
+  <si>
+    <t>Potere al Popolo!</t>
+  </si>
+  <si>
+    <t>PaP</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>SI + Possibile</t>
+  </si>
+  <si>
+    <t>Art1</t>
+  </si>
+  <si>
+    <t>Italia Viva</t>
+  </si>
+  <si>
+    <t>#003366</t>
+  </si>
+  <si>
+    <t>#203087</t>
+  </si>
+  <si>
+    <t>#00A2E8</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#5FB900</t>
+  </si>
+  <si>
+    <t>#FFC317</t>
+  </si>
+  <si>
+    <t>#FFEB3B</t>
+  </si>
+  <si>
+    <t>#D42894</t>
+  </si>
+  <si>
+    <t>#9B001F</t>
+  </si>
+  <si>
+    <t>#505050</t>
   </si>
 </sst>
 </file>
@@ -501,6 +537,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -519,9 +558,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -536,17 +572,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}" name="Tabella1" displayName="Tabella1" ref="A1:E137" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E137" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E137">
-    <sortCondition ref="B1:B137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}" name="Tabella1" displayName="Tabella1" ref="A1:F142" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F142" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E142">
+    <sortCondition ref="B1:B142"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CF6F6080-2E3F-4BE9-8FD3-C9321550F041}" name="DATA" dataDxfId="1"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CF6F6080-2E3F-4BE9-8FD3-C9321550F041}" name="DATA" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7DFEDEB7-92CA-4C46-8382-CF6337506890}" name="ELEZIONE"/>
     <tableColumn id="3" xr3:uid="{1C8328E4-2A0A-4B14-9009-17E99811FE3C}" name="LISTA"/>
     <tableColumn id="4" xr3:uid="{D9CB0E91-0EBD-469C-92BB-89615A38E682}" name="LISTA_FUTURA"/>
     <tableColumn id="5" xr3:uid="{D585B9AD-6D33-4FD6-BD40-0BC6C7CEA9F7}" name="FRAZIONE"/>
+    <tableColumn id="6" xr3:uid="{989615F7-460F-4DA5-A25D-909372847842}" name="NOTE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,19 +876,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,145 +899,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
+      <c r="C12" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1010,20 +1021,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AAC81F-9508-4537-B86C-3FF6E0644331}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1034,44 +1045,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1081,22 +1092,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1124,11 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1226,13 +1241,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1260,13 +1278,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1274,16 +1295,19 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1291,16 +1315,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1308,16 +1332,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1325,16 +1349,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1342,16 +1366,19 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1359,16 +1386,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1376,16 +1406,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1393,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1402,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1410,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1427,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -1436,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1444,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1461,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1470,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1478,16 +1508,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1495,16 +1525,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1512,16 +1542,16 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1529,16 +1559,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1546,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1555,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1563,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1572,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1580,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1589,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1597,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1606,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1614,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1623,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1640,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -1657,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1665,50 +1695,50 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43162.958333333328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43162.958333333328</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44828.916666666672</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44828.916666666672</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1716,16 +1746,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1733,16 +1763,16 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1750,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1767,16 +1797,16 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1784,16 +1814,16 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1801,16 +1831,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1818,16 +1848,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1835,16 +1865,16 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1852,16 +1882,16 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1869,16 +1899,16 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1886,16 +1916,16 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1903,16 +1933,16 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1920,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1929,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1937,16 +1967,16 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1954,16 +1984,16 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1971,16 +2001,16 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -1988,16 +2018,16 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -2005,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -2014,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -2022,16 +2052,16 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -2039,16 +2069,16 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -2056,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -2065,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44828.916666666672</v>
       </c>
@@ -2073,50 +2103,50 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44828.916666666672</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44828.916666666672</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
         <v>106</v>
       </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>43610.916666666672</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>43610.916666666672</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2124,16 +2154,16 @@
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2141,16 +2171,16 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2158,16 +2188,16 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2175,16 +2205,16 @@
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2192,16 +2222,16 @@
         <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2209,16 +2239,16 @@
         <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2226,16 +2256,16 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2243,16 +2273,16 @@
         <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2260,16 +2290,16 @@
         <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2277,7 +2307,7 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -2286,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2294,16 +2324,16 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2311,16 +2341,16 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2328,16 +2358,16 @@
         <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2345,16 +2375,16 @@
         <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2362,16 +2392,16 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2379,7 +2409,7 @@
         <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -2388,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43610.916666666672</v>
       </c>
@@ -2396,50 +2426,50 @@
         <v>34</v>
       </c>
       <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>43610.916666666672</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>43610.916666666672</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
         <v>59</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>59</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>45450.916666666672</v>
-      </c>
-      <c r="B78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>45450.916666666672</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
       <c r="E79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2447,16 +2477,16 @@
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2464,16 +2494,16 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2481,16 +2511,16 @@
         <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2498,16 +2528,19 @@
         <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2515,16 +2548,19 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
         <v>131</v>
       </c>
       <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2532,16 +2568,16 @@
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2549,16 +2585,16 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2566,16 +2602,16 @@
         <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2583,16 +2619,16 @@
         <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2600,16 +2636,16 @@
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2617,7 +2653,7 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -2626,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2634,16 +2670,16 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2651,7 +2687,7 @@
         <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -2660,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45450.916666666672</v>
       </c>
@@ -2668,67 +2704,67 @@
         <v>48</v>
       </c>
       <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45450.916666666672</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45450.916666666672</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45450.916666666672</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
         <v>77</v>
       </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" t="s">
-        <v>21</v>
-      </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2736,16 +2772,16 @@
         <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2753,16 +2789,16 @@
         <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D98" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2770,16 +2806,16 @@
         <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2787,16 +2823,16 @@
         <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2804,16 +2840,16 @@
         <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2821,16 +2857,16 @@
         <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2838,16 +2874,16 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2855,16 +2891,16 @@
         <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2872,16 +2908,16 @@
         <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2889,16 +2925,16 @@
         <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2906,7 +2942,7 @@
         <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
         <v>123</v>
@@ -2915,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2923,16 +2959,16 @@
         <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2940,16 +2976,16 @@
         <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2957,16 +2993,16 @@
         <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2974,7 +3010,7 @@
         <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -2983,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -2991,16 +3027,16 @@
         <v>84</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3008,7 +3044,7 @@
         <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -3017,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3025,7 +3061,7 @@
         <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -3034,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3042,7 +3078,7 @@
         <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -3051,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3059,7 +3095,7 @@
         <v>84</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -3068,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3076,16 +3112,16 @@
         <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3093,16 +3129,16 @@
         <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3110,16 +3146,16 @@
         <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3127,16 +3163,16 @@
         <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3144,16 +3180,16 @@
         <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3161,7 +3197,7 @@
         <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
         <v>124</v>
@@ -3170,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3178,16 +3214,16 @@
         <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43855.958333333328</v>
       </c>
@@ -3195,67 +3231,67 @@
         <v>84</v>
       </c>
       <c r="C124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>43855.958333333328</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>43855.958333333328</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>43855.958333333328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" t="s">
         <v>119</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>130</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" t="s">
-        <v>122</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B126" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B127" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" t="s">
-        <v>124</v>
-      </c>
       <c r="E127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3263,7 +3299,7 @@
         <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D128" t="s">
         <v>122</v>
@@ -3272,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3280,16 +3316,16 @@
         <v>93</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3297,16 +3333,16 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3314,16 +3350,16 @@
         <v>93</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D131" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3331,16 +3367,16 @@
         <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3348,16 +3384,16 @@
         <v>93</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3365,30 +3401,33 @@
         <v>93</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45612.958333333328</v>
       </c>
       <c r="B135" t="s">
         <v>93</v>
       </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
       <c r="D135" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3396,16 +3435,16 @@
         <v>93</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45612.958333333328</v>
       </c>
@@ -3413,12 +3452,94 @@
         <v>93</v>
       </c>
       <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45612.958333333328</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45612.958333333328</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45612.958333333328</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45612.958333333328</v>
+      </c>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45612.958333333328</v>
+      </c>
+      <c r="B142" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142" t="s">
         <v>104</v>
       </c>
-      <c r="D137" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137">
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142">
         <v>1</v>
       </c>
     </row>
@@ -3434,7 +3555,7 @@
           <x14:formula1>
             <xm:f>liste_future!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D137</xm:sqref>
+          <xm:sqref>D2:D142</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5D09B-ADCE-4BA3-B3DF-586889BE1E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776FF4E-3F6E-4A0F-92E7-F196F626E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="3855" windowWidth="19440" windowHeight="14880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
     <sheet name="coalizioni_future" sheetId="3" r:id="rId2"/>
     <sheet name="flussi_previsti" sheetId="2" r:id="rId3"/>
+    <sheet name="camera_candidati_uni" sheetId="4" r:id="rId4"/>
+    <sheet name="senato_candidati_uni" sheetId="6" r:id="rId5"/>
+    <sheet name="camera_candidati_pluri" sheetId="7" r:id="rId6"/>
+    <sheet name="senato_candidati_pluri" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="166">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -387,9 +391,6 @@
     <t>AUTODETERMINATZIONE</t>
   </si>
   <si>
-    <t>DATA_DI_NASCITA</t>
-  </si>
-  <si>
     <t>Fratelli d'Italia</t>
   </si>
   <si>
@@ -478,6 +479,51 @@
   </si>
   <si>
     <t>#505050</t>
+  </si>
+  <si>
+    <t>MINORANZA</t>
+  </si>
+  <si>
+    <t>LISTA_MINORANZA</t>
+  </si>
+  <si>
+    <t>CIRCOSCRIZIONE</t>
+  </si>
+  <si>
+    <t>COLLEGIO_PLURINOMINALE</t>
+  </si>
+  <si>
+    <t>COLLEGIO_UNINOMINALE</t>
+  </si>
+  <si>
+    <t>COGNOME_CAND_UNI</t>
+  </si>
+  <si>
+    <t>NOME_CAND_UNI</t>
+  </si>
+  <si>
+    <t>DATA_NASCITA_CAND_UNI</t>
+  </si>
+  <si>
+    <t>Trentino-Alto Adige/Südtirol</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>COGNOME_CAND_PLURI</t>
+  </si>
+  <si>
+    <t>NOME_CAND_PLURI</t>
+  </si>
+  <si>
+    <t>DATA_NASCITA_CAND_PLURI</t>
+  </si>
+  <si>
+    <t>NUMERO_CANDIDATO</t>
+  </si>
+  <si>
+    <t>Trentino-Alto Adige</t>
   </si>
 </sst>
 </file>
@@ -524,13 +570,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -879,13 +926,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -901,101 +948,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +1058,7 @@
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1021,68 +1068,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AAC81F-9508-4537-B86C-3FF6E0644331}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1094,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1173,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1190,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1207,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1247,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1278,13 +1321,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1352,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1369,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,13 +1432,13 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1477,7 +1520,7 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1511,7 +1554,7 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1545,7 +1588,7 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1749,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1766,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1783,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1800,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1817,7 +1860,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1834,7 +1877,7 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1851,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1868,7 +1911,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1885,7 +1928,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1902,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1936,7 +1979,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2021,7 +2064,7 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2208,7 +2251,7 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2225,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2259,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2276,7 +2319,7 @@
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2293,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2327,7 +2370,7 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2361,7 +2404,7 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2378,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2395,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2480,7 +2523,7 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2497,7 +2540,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2514,7 +2557,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2531,13 +2574,13 @@
         <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83">
         <v>0.5</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,13 +2594,13 @@
         <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84">
         <v>0.5</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,7 +2614,7 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2605,7 +2648,7 @@
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2622,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2639,7 +2682,7 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2809,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2826,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2843,7 +2886,7 @@
         <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2860,7 +2903,7 @@
         <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2877,7 +2920,7 @@
         <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2894,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2911,7 +2954,7 @@
         <v>90</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2928,7 +2971,7 @@
         <v>91</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2945,7 +2988,7 @@
         <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2962,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2979,7 +3022,7 @@
         <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2996,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3030,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3132,7 +3175,7 @@
         <v>110</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3149,7 +3192,7 @@
         <v>111</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3166,7 +3209,7 @@
         <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3183,7 +3226,7 @@
         <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -3200,7 +3243,7 @@
         <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -3217,7 +3260,7 @@
         <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3234,7 +3277,7 @@
         <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3251,7 +3294,7 @@
         <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3268,7 +3311,7 @@
         <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3285,7 +3328,7 @@
         <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3302,7 +3345,7 @@
         <v>94</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3319,7 +3362,7 @@
         <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3336,7 +3379,7 @@
         <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3353,7 +3396,7 @@
         <v>97</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131">
         <v>0.33</v>
@@ -3370,7 +3413,7 @@
         <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E132">
         <v>0.33</v>
@@ -3387,7 +3430,7 @@
         <v>97</v>
       </c>
       <c r="D133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E133">
         <v>0.33</v>
@@ -3404,7 +3447,7 @@
         <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3421,7 +3464,7 @@
         <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3438,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3455,7 +3498,7 @@
         <v>100</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3472,7 +3515,7 @@
         <v>101</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3561,4 +3604,482 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68449A-D3DF-4402-9A39-2D8FFCF92682}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD40B9-46AF-46B4-A447-A0B3FBBAFB86}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21102282-00F0-46CE-98E1-245471DBADFA}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3052C-A016-475B-9F75-C69E34BF0E99}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776FF4E-3F6E-4A0F-92E7-F196F626E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75B7A7-CE1A-4EF9-93BD-8832D0D6EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="3855" windowWidth="19440" windowHeight="14880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -487,15 +487,6 @@
     <t>LISTA_MINORANZA</t>
   </si>
   <si>
-    <t>CIRCOSCRIZIONE</t>
-  </si>
-  <si>
-    <t>COLLEGIO_PLURINOMINALE</t>
-  </si>
-  <si>
-    <t>COLLEGIO_UNINOMINALE</t>
-  </si>
-  <si>
     <t>COGNOME_CAND_UNI</t>
   </si>
   <si>
@@ -524,6 +515,15 @@
   </si>
   <si>
     <t>Trentino-Alto Adige</t>
+  </si>
+  <si>
+    <t>CIRC_DEN</t>
+  </si>
+  <si>
+    <t>PLURI_DEN</t>
+  </si>
+  <si>
+    <t>UNI_DEN</t>
   </si>
 </sst>
 </file>
@@ -3610,8 +3610,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68449A-D3DF-4402-9A39-2D8FFCF92682}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD40B9-46AF-46B4-A447-A0B3FBBAFB86}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,22 +3728,22 @@
         <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3657,7 +3751,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3665,7 +3759,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3673,7 +3767,7 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3681,10 +3775,10 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,101 +3786,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD40B9-46AF-46B4-A447-A0B3FBBAFB86}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3799,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,22 +3822,22 @@
         <v>151</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3877,7 +3877,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3893,7 +3893,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3928,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3943,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3052C-A016-475B-9F75-C69E34BF0E99}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,22 +3967,22 @@
         <v>151</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,7 +4022,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,7 +4030,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4038,7 +4038,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4054,7 +4054,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75B7A7-CE1A-4EF9-93BD-8832D0D6EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E21473-CF21-4573-8C69-C20AE356EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3944,7 +3944,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E21473-CF21-4573-8C69-C20AE356EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922E674-B687-4B6B-8973-E8B6147DCB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="165">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -493,9 +493,6 @@
     <t>NOME_CAND_UNI</t>
   </si>
   <si>
-    <t>DATA_NASCITA_CAND_UNI</t>
-  </si>
-  <si>
     <t>Trentino-Alto Adige/Südtirol</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>NOME_CAND_PLURI</t>
   </si>
   <si>
-    <t>DATA_NASCITA_CAND_PLURI</t>
-  </si>
-  <si>
     <t>NUMERO_CANDIDATO</t>
   </si>
   <si>
@@ -524,6 +518,9 @@
   </si>
   <si>
     <t>UNI_DEN</t>
+  </si>
+  <si>
+    <t>DATA_NASCITA</t>
   </si>
 </sst>
 </file>
@@ -3610,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68449A-D3DF-4402-9A39-2D8FFCF92682}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,13 +3631,13 @@
         <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>153</v>
@@ -3649,7 +3646,7 @@
         <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3657,7 +3654,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3665,7 +3662,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3673,7 +3670,7 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3681,10 +3678,10 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,7 +3689,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3702,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,13 +3725,13 @@
         <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>153</v>
@@ -3743,7 +3740,7 @@
         <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3759,7 +3756,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3767,7 +3764,7 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,10 +3772,10 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,7 +3783,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3796,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,22 +3819,22 @@
         <v>151</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3845,7 +3842,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,7 +3850,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3861,7 +3858,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3869,7 +3866,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3877,7 +3874,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3885,7 +3882,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3893,7 +3890,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,7 +3898,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,7 +3906,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3928,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
         <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3943,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3052C-A016-475B-9F75-C69E34BF0E99}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,22 +3964,22 @@
         <v>151</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3990,7 +3987,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,7 +3995,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4006,7 +4003,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,7 +4011,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,7 +4019,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,7 +4027,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4038,7 +4035,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,7 +4043,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4054,7 +4051,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4062,7 +4059,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922E674-B687-4B6B-8973-E8B6147DCB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54039C-FFDB-453D-A1DE-5330E9391467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="162">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -478,9 +478,6 @@
     <t>#9B001F</t>
   </si>
   <si>
-    <t>#505050</t>
-  </si>
-  <si>
     <t>MINORANZA</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>NOME_CAND_UNI</t>
   </si>
   <si>
-    <t>Trentino-Alto Adige/Südtirol</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
   </si>
   <si>
     <t>NUMERO_CANDIDATO</t>
-  </si>
-  <si>
-    <t>Trentino-Alto Adige</t>
   </si>
   <si>
     <t>CIRC_DEN</t>
@@ -920,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,17 +1038,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AAC81F-9508-4537-B86C-3FF6E0644331}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,17 +1091,9 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1135,7 +1107,7 @@
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1455,7 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2044,7 +2016,7 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2503,7 +2475,7 @@
         <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2764,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3605,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68449A-D3DF-4402-9A39-2D8FFCF92682}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,25 +3600,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,7 +3626,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,7 +3634,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3670,26 +3642,15 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD40B9-46AF-46B4-A447-A0B3FBBAFB86}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,25 +3683,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,7 +3709,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3756,7 +3717,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3764,26 +3725,15 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3793,10 +3743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21102282-00F0-46CE-98E1-245471DBADFA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,25 +3766,25 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3842,7 +3792,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,7 +3800,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,7 +3808,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,7 +3816,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3874,7 +3824,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3882,7 +3832,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3890,7 +3840,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3898,7 +3848,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,7 +3856,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3914,21 +3864,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3938,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3052C-A016-475B-9F75-C69E34BF0E99}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,25 +3897,25 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3987,7 +3923,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,7 +3931,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4003,7 +3939,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4011,7 +3947,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,7 +3955,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4027,7 +3963,7 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4035,7 +3971,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4043,7 +3979,7 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4051,7 +3987,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4059,21 +3995,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/scenari/politiche_2027.xlsx
+++ b/scenari/politiche_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forna\Repos\elezioni\scenari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54039C-FFDB-453D-A1DE-5330E9391467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0C9A4-FEC2-44C3-A009-F26442F6D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_future" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="129">
   <si>
     <t>LISTA_FUTURA</t>
   </si>
@@ -280,114 +280,12 @@
     <t>PARTITO ANIMALISTA - UCDL - 10 VOLTE MEGLIO</t>
   </si>
   <si>
-    <t>regionali 2020</t>
-  </si>
-  <si>
-    <t>L'ALTRA EMILIA ROMAGNA</t>
-  </si>
-  <si>
-    <t>MOVIMENTO 3V VACCINI VOGLIAMO VERITA'</t>
-  </si>
-  <si>
-    <t>VOLT EMILIA-ROMAGNA</t>
-  </si>
-  <si>
-    <t>+EUROPA - PSI - PRI</t>
-  </si>
-  <si>
-    <t>BONACCINI PRESIDENTE</t>
-  </si>
-  <si>
-    <t>EMILIA-ROMAGNA CORAGGIOSA ECOLOGISTA PROGRESSISTA</t>
-  </si>
-  <si>
-    <t>PROGETTO EMILIA-ROMAGNA RETE CIVICA BORGONZONI PRESIDENTE</t>
-  </si>
-  <si>
-    <t>GIOVANI PER L'AMBIENTE</t>
-  </si>
-  <si>
-    <t>regionali 2024</t>
-  </si>
-  <si>
-    <t>FRATELLI D'ITALIA - GIORGIA MELONI</t>
-  </si>
-  <si>
-    <t>LEGA SALVINI EMILIA-ROMAGNA - IL POPOLO DELLA FAMIGLIA</t>
-  </si>
-  <si>
-    <t>FORZA ITALIA - BERLUSCONI - UGOLINI PRESIDENTE - NOI MODERATI</t>
-  </si>
-  <si>
-    <t>RETE CIVICA - ELENA UGOLINI PRESIDENTE</t>
-  </si>
-  <si>
-    <t>PARTITO DEMOCRATICO - DE PASCALE PRESIDENTE</t>
-  </si>
-  <si>
-    <t>CIVICI, CON DE PASCALE PRESIDENTE</t>
-  </si>
-  <si>
-    <t>ALLEANZA VERDI E SINISTRA - COALIZIONI CIVICHE - POSSIBILE</t>
-  </si>
-  <si>
-    <t>RIFORMISTI EMILIA-ROMAGNA FUTURA - DE PASCALE PRESIDENTE</t>
-  </si>
-  <si>
-    <t>EMILIA-ROMAGNA PER LA PACE, L'AMBIENTE E IL LAVORO</t>
-  </si>
-  <si>
-    <t>IL POPOLO DELLA FAMIGLIA - CAMBIAMO!</t>
-  </si>
-  <si>
-    <t>LEALTA' COERENZA VERITA' - LUCA TEODORI</t>
-  </si>
-  <si>
     <t>PARTITO DELLA FOLLIA CREATIVA</t>
   </si>
   <si>
     <t>FORZA DEL POPOLO</t>
   </si>
   <si>
-    <t>CALABRIA PULITA CON CARLO TANSI</t>
-  </si>
-  <si>
-    <t>TESORO CALABRIA CARLO TANSI PRESIDENTE</t>
-  </si>
-  <si>
-    <t>CALABRIA LIBERA CON CARLO TANSI</t>
-  </si>
-  <si>
-    <t>DEMOCRATICI PROGRESSISTI CALABRIA</t>
-  </si>
-  <si>
-    <t>IO RESTO IN CALABRIA CON CALLIPO</t>
-  </si>
-  <si>
-    <t>CASA DELLE LIBERTA'</t>
-  </si>
-  <si>
-    <t>LEGA SALVINI CALABRIA</t>
-  </si>
-  <si>
-    <t>CALABRIA LIBERTAS UNIONE DI CENTRO</t>
-  </si>
-  <si>
-    <t>GIORGIA MELONI FRATELLI D'ITALIA</t>
-  </si>
-  <si>
-    <t>FORZA ITALIA BERLUSCONI PER SANTELLI</t>
-  </si>
-  <si>
-    <t>JOLE SANTELLI PRESIDENTE</t>
-  </si>
-  <si>
-    <t>LIBERI DI CAMBIARE CALABRIA CIVICA AIELL</t>
-  </si>
-  <si>
-    <t>MOVIMENTO 5 STELLE ILBLOGDELLESTELLE.IT</t>
-  </si>
-  <si>
     <t>AUTODETERMINATZIONE</t>
   </si>
   <si>
@@ -512,6 +410,9 @@
   </si>
   <si>
     <t>DATA_NASCITA</t>
+  </si>
+  <si>
+    <t>confluisce in Az-Iv ma non è rappresentativo</t>
   </si>
 </sst>
 </file>
@@ -607,10 +508,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}" name="Tabella1" displayName="Tabella1" ref="A1:F142" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F142" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E142">
-    <sortCondition ref="B1:B142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}" name="Tabella1" displayName="Tabella1" ref="A1:F96" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F96" xr:uid="{95F696F0-7BC5-40E2-B2B4-4FC029D484AC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E96">
+    <sortCondition ref="B1:B96"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CF6F6080-2E3F-4BE9-8FD3-C9321550F041}" name="DATA" dataDxfId="0"/>
@@ -913,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -936,101 +837,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,34 +968,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1104,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1185,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1202,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1219,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1259,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1290,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1364,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1381,13 +1282,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,16 +1302,16 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1421,13 +1322,13 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1444,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1461,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1478,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1489,13 +1390,13 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1512,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1523,13 +1424,13 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1546,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1557,13 +1458,16 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1580,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1597,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1614,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1631,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1648,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1665,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43162.958333333328</v>
       </c>
@@ -1741,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1761,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1778,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1795,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1812,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1829,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1846,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1863,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1880,7 +1784,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1897,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1914,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1948,7 +1852,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2033,7 +1937,7 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2132,7 +2036,7 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -2149,7 +2053,7 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -2220,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2237,7 +2141,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2271,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2288,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2305,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2339,7 +2243,7 @@
         <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2373,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2390,7 +2294,7 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2407,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2492,7 +2396,7 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2509,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2526,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2543,13 +2447,13 @@
         <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E83">
         <v>0.5</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,13 +2467,13 @@
         <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E84">
         <v>0.5</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,7 +2487,7 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2617,7 +2521,7 @@
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2634,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2651,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2773,785 +2677,6 @@
         <v>22</v>
       </c>
       <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B97" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>88</v>
-      </c>
-      <c r="D103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D105" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B108" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" t="s">
-        <v>123</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B109" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" t="s">
-        <v>121</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B110" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B111" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" t="s">
-        <v>134</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B114" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" t="s">
-        <v>103</v>
-      </c>
-      <c r="D114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B115" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" t="s">
-        <v>110</v>
-      </c>
-      <c r="D118" t="s">
-        <v>124</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" t="s">
-        <v>124</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" t="s">
-        <v>122</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" t="s">
-        <v>123</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B123" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B124" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>123</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" t="s">
-        <v>123</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B126" t="s">
-        <v>84</v>
-      </c>
-      <c r="C126" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>43855.958333333328</v>
-      </c>
-      <c r="B127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" t="s">
-        <v>129</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B128" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" t="s">
-        <v>121</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B129" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" t="s">
-        <v>122</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B130" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" t="s">
-        <v>96</v>
-      </c>
-      <c r="D130" t="s">
-        <v>123</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B131" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B132" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E132">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" t="s">
-        <v>122</v>
-      </c>
-      <c r="E133">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>98</v>
-      </c>
-      <c r="D134" t="s">
-        <v>124</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" t="s">
-        <v>99</v>
-      </c>
-      <c r="D135" t="s">
-        <v>124</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" t="s">
-        <v>129</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>100</v>
-      </c>
-      <c r="D137" t="s">
-        <v>127</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>102</v>
-      </c>
-      <c r="D139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B140" t="s">
-        <v>93</v>
-      </c>
-      <c r="D140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B141" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>45612.958333333328</v>
-      </c>
-      <c r="B142" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" t="s">
-        <v>104</v>
-      </c>
-      <c r="D142" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142">
         <v>1</v>
       </c>
     </row>
@@ -3567,7 +2692,7 @@
           <x14:formula1>
             <xm:f>liste_future!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D142</xm:sqref>
+          <xm:sqref>D2:D96</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3600,57 +2725,57 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3683,57 +2808,57 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3766,97 +2891,97 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3864,7 +2989,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3897,97 +3022,97 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
